--- a/Results/Notebook 3 Conditioning/Scores/problem_1_instance1_scores.xlsx
+++ b/Results/Notebook 3 Conditioning/Scores/problem_1_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05027295998384613</v>
+        <v>0.0463764283011649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1751843271171487</v>
+        <v>0.1794809538289513</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02109516417693122</v>
+        <v>0.02157205171300387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10620925982711</v>
+        <v>0.09570174413718284</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7560760677284925</v>
+        <v>0.7519808397960515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3927397340181058</v>
+        <v>0.3503770573730713</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8964071590675987</v>
+        <v>0.9169947986045117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7036516077936483</v>
+        <v>0.7194900691260924</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9838484332442632</v>
+        <v>0.9792614230038085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7635038970544213</v>
+        <v>0.8444421974125974</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8217981740477994</v>
+        <v>0.8281868950192681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.345476371472308</v>
+        <v>0.31106226319429</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01619923114776611</v>
+        <v>0.01639171600341797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1086564660072327</v>
+        <v>0.1298224544525146</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009809399463712416</v>
+        <v>0.01318404979094875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01294786691673697</v>
+        <v>0.01383336160571978</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008646256191235224</v>
+        <v>0.01410578161886031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01782527328161557</v>
+        <v>0.01830880674363285</v>
       </c>
     </row>
   </sheetData>
